--- a/medicine/Mort/Cimetière_des_Pommiers/Cimetière_des_Pommiers.xlsx
+++ b/medicine/Mort/Cimetière_des_Pommiers/Cimetière_des_Pommiers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Pommiers</t>
+          <t>Cimetière_des_Pommiers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière des Pommiers est un des deux cimetières communaux de la commune de Villejuif dans le département du Val-de-Marne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière des Pommiers est un des deux cimetières communaux de la commune de Villejuif dans le département du Val-de-Marne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Pommiers</t>
+          <t>Cimetière_des_Pommiers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existait à Villejuif un asile d'aliénés, devenu aujourd'hui l'établissement public de santé Paul-Guiraud. Le Conseil général décida par une délibération du 12 mai 1881, de construire un cimetière destiné aux malades de cet hôpital, dont beaucoup étaient sans famille. Le 12 avril 1883 fut acquis à cet effet un terrain de 2,55 hectares au lieu-dit Le pommier du Bois[2].
-Il a été ouvert au public en 1972. Des extensions ont été créées en 2001 et 2007[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existait à Villejuif un asile d'aliénés, devenu aujourd'hui l'établissement public de santé Paul-Guiraud. Le Conseil général décida par une délibération du 12 mai 1881, de construire un cimetière destiné aux malades de cet hôpital, dont beaucoup étaient sans famille. Le 12 avril 1883 fut acquis à cet effet un terrain de 2,55 hectares au lieu-dit Le pommier du Bois.
+Il a été ouvert au public en 1972. Des extensions ont été créées en 2001 et 2007.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Pommiers</t>
+          <t>Cimetière_des_Pommiers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il possède un site cinéraire et un carré musulman[4].
-Une ruche y a été déposée en 2015, dans un espace biodiversité[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il possède un site cinéraire et un carré musulman.
+Une ruche y a été déposée en 2015, dans un espace biodiversité,.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Pommiers</t>
+          <t>Cimetière_des_Pommiers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le carré militaire se trouvent notamment les tombes de nombreux soldats des anciennes colonies, morts pour la France[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le carré militaire se trouvent notamment les tombes de nombreux soldats des anciennes colonies, morts pour la France.
 </t>
         </is>
       </c>
